--- a/database.xlsx
+++ b/database.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\AltV\_GIT\MostWanted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ADC7FD-B317-4F2E-98AF-216C3CD85A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FEDFC2-CDDA-4137-9FAA-452DCEB8EBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Player" sheetId="1" r:id="rId1"/>
+    <sheet name="Meta" sheetId="1" r:id="rId1"/>
+    <sheet name="Events" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Meta</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Event</t>
   </si>
 </sst>
 </file>
@@ -66,7 +73,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,11 +96,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -102,6 +118,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,24 +416,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -460,7 +481,106 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D148565-BB30-4C96-95D3-34BFCD833F74}">
+  <dimension ref="B2:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>